--- a/iselUssSyncV2/OutputWSL/20220428_1032_D50L474W90Q15.0U0.26H73G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1032_D50L474W90Q15.0U0.26H73G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>73.542173913043499</v>
+        <v>73.543104680064417</v>
       </c>
       <c r="F2" s="0">
-        <v>73.974624505928887</v>
+        <v>73.975555272949862</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>74.363162055335962</v>
+        <v>74.365437263609437</v>
       </c>
       <c r="F3" s="0">
-        <v>75.852766798418983</v>
+        <v>75.855042006692415</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>73.810833333333335</v>
+        <v>73.813584266973095</v>
       </c>
       <c r="F4" s="0">
-        <v>77.673650793650808</v>
+        <v>77.676401727290539</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>73.121587301587311</v>
+        <v>73.124393391791287</v>
       </c>
       <c r="F5" s="0"/>
     </row>
@@ -200,7 +200,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>72.135000000000005</v>
+        <v>72.13785435219765</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -218,7 +218,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>69.882301587301555</v>
+        <v>69.885197306922393</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -236,10 +236,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>65.393505976095597</v>
+        <v>65.39643616856911</v>
       </c>
       <c r="F8" s="0">
-        <v>76.241752988047836</v>
+        <v>76.244683180521221</v>
       </c>
     </row>
     <row r="9">
@@ -256,7 +256,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>63.006573705179257</v>
+        <v>63.009515756314009</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -274,10 +274,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>59.936772908366521</v>
+        <v>59.939725715031287</v>
       </c>
       <c r="F10" s="0">
-        <v>42.962709163346609</v>
+        <v>42.965661970011361</v>
       </c>
     </row>
     <row r="11">
@@ -294,10 +294,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>56.771706349206355</v>
+        <v>56.774668808269851</v>
       </c>
       <c r="F11" s="0">
-        <v>42.584444444444436</v>
+        <v>42.58740690350794</v>
       </c>
     </row>
     <row r="12">
@@ -314,10 +314,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>55.051952191235031</v>
+        <v>55.054919062823679</v>
       </c>
       <c r="F12" s="0">
-        <v>41.830996015936257</v>
+        <v>41.833962887524869</v>
       </c>
     </row>
     <row r="13">
@@ -334,10 +334,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>53.769603174603155</v>
+        <v>53.772574182934115</v>
       </c>
       <c r="F13" s="0">
-        <v>42.849285714285713</v>
+        <v>42.852256722616666</v>
       </c>
     </row>
     <row r="14">
@@ -354,10 +354,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>52.261792828685287</v>
+        <v>52.264767697975692</v>
       </c>
       <c r="F14" s="0">
-        <v>43.693864541832667</v>
+        <v>43.696839411123094</v>
       </c>
     </row>
     <row r="15">
@@ -374,10 +374,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>50.703346613545804</v>
+        <v>50.706325068012951</v>
       </c>
       <c r="F15" s="0">
-        <v>44.108247011952194</v>
+        <v>44.111225466419299</v>
       </c>
     </row>
     <row r="16">
@@ -394,10 +394,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>47.793253968253921</v>
+        <v>47.79623876572591</v>
       </c>
       <c r="F16" s="0">
-        <v>46.298333333333332</v>
+        <v>46.301318130805321</v>
       </c>
     </row>
     <row r="17">
@@ -414,10 +414,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>45.52150793650793</v>
+        <v>45.524497973853521</v>
       </c>
       <c r="F17" s="0">
-        <v>47.828611111111101</v>
+        <v>47.831601148456691</v>
       </c>
     </row>
     <row r="18">
@@ -434,10 +434,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>43.595896414342633</v>
+        <v>43.598890588430528</v>
       </c>
       <c r="F18" s="0">
-        <v>49.794143426294823</v>
+        <v>49.797137600382726</v>
       </c>
     </row>
     <row r="19">
@@ -454,10 +454,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>43.918764940239043</v>
+        <v>43.921764078417723</v>
       </c>
       <c r="F19" s="0">
-        <v>51.166254980079685</v>
+        <v>51.169254118258358</v>
       </c>
     </row>
     <row r="20">
@@ -474,10 +474,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>50.00490039840637</v>
+        <v>50.00789953658505</v>
       </c>
       <c r="F20" s="0">
-        <v>52.236095617529877</v>
+        <v>52.239094755708571</v>
       </c>
     </row>
     <row r="21">
@@ -494,10 +494,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>51.264404761904764</v>
+        <v>51.267397005512926</v>
       </c>
       <c r="F21" s="0">
-        <v>52.739801587301564</v>
+        <v>52.742793830909747</v>
       </c>
     </row>
     <row r="22">
@@ -514,10 +514,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>51.898095238095237</v>
+        <v>51.901073692562342</v>
       </c>
       <c r="F22" s="0">
-        <v>52.583492063492073</v>
+        <v>52.586470517959185</v>
       </c>
     </row>
     <row r="23">
@@ -534,10 +534,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>55.341825396825392</v>
+        <v>55.344783167580921</v>
       </c>
       <c r="F23" s="0">
-        <v>52.567500000000003</v>
+        <v>52.570457770755532</v>
       </c>
     </row>
     <row r="24">
@@ -554,10 +554,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>47.17677290836653</v>
+        <v>47.179668627987326</v>
       </c>
       <c r="F24" s="0">
-        <v>52.802828685258952</v>
+        <v>52.805724404879754</v>
       </c>
     </row>
     <row r="25">
@@ -574,10 +574,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>50.77511904761905</v>
+        <v>50.777925137822997</v>
       </c>
       <c r="F25" s="0">
-        <v>52.832142857142863</v>
+        <v>52.834948947346817</v>
       </c>
     </row>
     <row r="26">
@@ -594,10 +594,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>53.220277777777767</v>
+        <v>53.222966660282793</v>
       </c>
       <c r="F26" s="0">
-        <v>52.815952380952375</v>
+        <v>52.818641263457401</v>
       </c>
     </row>
     <row r="27">
@@ -614,10 +614,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>48.961752988047806</v>
+        <v>48.964297084571818</v>
       </c>
       <c r="F27" s="0">
-        <v>52.863426294820712</v>
+        <v>52.86597039134471</v>
       </c>
     </row>
     <row r="28">
@@ -634,10 +634,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>52.190398406374499</v>
+        <v>52.192770138635353</v>
       </c>
       <c r="F28" s="0">
-        <v>52.766294820717128</v>
+        <v>52.768666552977976</v>
       </c>
     </row>
     <row r="29">
@@ -654,10 +654,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>51.758605577689259</v>
+        <v>51.760777367404842</v>
       </c>
       <c r="F29" s="0">
-        <v>52.37482071713147</v>
+        <v>52.376992506847067</v>
       </c>
     </row>
     <row r="30">
@@ -674,10 +674,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>51.128571428571405</v>
+        <v>51.130260598350226</v>
       </c>
       <c r="F30" s="0">
-        <v>51.990238095238091</v>
+        <v>51.991927265016912</v>
       </c>
     </row>
   </sheetData>
